--- a/trend_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
+++ b/trend_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.796491986364313</v>
+        <v>0.203508013635687</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.940298941817155</v>
+        <v>0.059701058182845</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9416426872962</v>
+        <v>0.0583573127038</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0694533157168081</v>
+        <v>0.930546684283192</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3074,11 +3074,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999874320863259</v>
+        <v>0.0047465116444821</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0273224043715847</v>
+        <v>0.0066666666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>0.491803278688525</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.08</v>
+        <v>2.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0608129459734964</v>
+        <v>0.102713723284589</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0317533887029825</v>
+        <v>0.0383953467343734</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0886565115981979</v>
+        <v>0.165746303874648</v>
       </c>
       <c r="N30" t="n">
-        <v>1.97444629784079</v>
+        <v>4.66880560384497</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3165,14 +3165,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3180,31 +3180,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0046122764578327</v>
+        <v>0.976228888398368</v>
       </c>
       <c r="G31" t="n">
-        <v>0.042654028436019</v>
+        <v>0.0364963503649635</v>
       </c>
       <c r="H31" t="n">
-        <v>0.175355450236967</v>
+        <v>0.437956204379562</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>0.016</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0002496582365003</v>
+        <v>0.0679816824073872</v>
       </c>
       <c r="L31" t="n">
-        <v>6.498836064031609e-05</v>
+        <v>0.0097595439503546</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0004047602311124</v>
+        <v>0.124870497639385</v>
       </c>
       <c r="N31" t="n">
-        <v>1.56036397812714</v>
+        <v>1.94233378306821</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3256,11 +3256,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3271,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9828282110922</v>
+        <v>0.01982158295865</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.285714285714286</v>
+        <v>0.790123456790123</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>12</v>
+        <v>10.925</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.221229557843731</v>
+        <v>-0.0232784522003034</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.497943419785249</v>
+        <v>-0.0439096301276218</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.0033440673242662</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.84357964869776</v>
+        <v>-0.213075077348315</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3347,46 +3347,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.976179223000688</v>
+        <v>2.96303302426766e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.946341463414634</v>
+        <v>0.0424242424242424</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0682926829268293</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.000571819960861</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0003330547112462</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0007501173910514</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.5738747553816</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,11 +3438,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3453,31 +3453,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.941980404554555</v>
+        <v>0.787311264464182</v>
       </c>
       <c r="G34" t="n">
-        <v>0.432835820895522</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="H34" t="n">
-        <v>0.189054726368159</v>
+        <v>0.335365853658537</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.008999999999999999</v>
+        <v>12</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0001612252678792</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0003124984045531</v>
+        <v>-0.399835796387521</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.79139186532485</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3529,46 +3529,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999996517165747</v>
+        <v>0.876024997669802</v>
       </c>
       <c r="G35" t="n">
-        <v>0.108490566037736</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="H35" t="n">
-        <v>0.278301886792453</v>
+        <v>0.0566037735849057</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0006020604395604</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.000870019027204</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.000398973313792</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-4.01373626373626</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3620,43 +3620,43 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.485215165137621</v>
+        <v>0.270869474302088</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.696774193548387</v>
       </c>
       <c r="H36" t="n">
-        <v>0.630331753554502</v>
+        <v>0.0451612903225806</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7</v>
+        <v>0.001</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0080274725274725</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0071274496274211</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3711,46 +3711,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.0034778340498568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.432258064516129</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.219354838709677</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>0.68</v>
+        <v>0.0066</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0069727483457889</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.07902640939230759</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0194522822726342</v>
+        <v>1.48148218698655e-05</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.02540416849837</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3788,7 +3788,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3798,11 +3802,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3813,31 +3817,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.768783636774762</v>
+        <v>0.91824950874509</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.5590062111801239</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>134</v>
+        <v>7.72</v>
       </c>
       <c r="K38" t="n">
-        <v>2.11132494319932</v>
+        <v>0.0077375348358172</v>
       </c>
       <c r="L38" t="n">
-        <v>-8.979144367430591</v>
+        <v>-0.0011885779368695</v>
       </c>
       <c r="M38" t="n">
-        <v>9.053199857587201</v>
+        <v>0.0182703956871288</v>
       </c>
       <c r="N38" t="n">
-        <v>1.57561562925322</v>
+        <v>0.10022713517898</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3846,7 +3850,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3885,46 +3889,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.231216363225238</v>
+        <v>0.25134209252373</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.102409638554217</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.259036144578313</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>8.01</v>
+        <v>0.013</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0568117977442558</v>
+        <v>9.1587353179901e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.342471112106129</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.177236870066339</v>
+        <v>0.0003655959146443</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.709260895683593</v>
+        <v>0.704518101383854</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3962,7 +3966,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3972,46 +3980,46 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.20948086257967</v>
+        <v>0.576222274786182</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9</v>
+        <v>0.315151515151515</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7315</v>
+        <v>0.08</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0104898788927336</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0221346364260485</v>
+        <v>-0.0010499089995041</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0021122438958486</v>
+        <v>0.0005887986392907</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.43402308854868</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4020,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4049,7 +4057,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4074,31 +4086,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.639742606431872</v>
+        <v>0.0192156778393202</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0121212121212121</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>131.5</v>
+        <v>0.021</v>
       </c>
       <c r="K41" t="n">
-        <v>0.676015193370153</v>
+        <v>0.0003314428312159</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.63333984160601</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.48050909372322</v>
+        <v>0.0006240850578232</v>
       </c>
       <c r="N41" t="n">
-        <v>0.514079994958291</v>
+        <v>1.57829919626653</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4107,7 +4119,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4136,7 +4148,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4146,14 +4162,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4161,31 +4177,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.295752518497458</v>
+        <v>0.290701941832303</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.703030303030303</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.94</v>
+        <v>0.71</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0258325645756457</v>
+        <v>0.0034127734731084</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.09713055260008049</v>
+        <v>-0.0085589684115281</v>
       </c>
       <c r="M42" t="n">
-        <v>0.127236583010689</v>
+        <v>0.0177779333467045</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.325347160902339</v>
+        <v>0.480672320156123</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4223,7 +4239,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4233,7 +4253,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4248,31 +4268,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.602660681823749</v>
+        <v>0.999874320863259</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="H43" t="n">
-        <v>0.75</v>
+        <v>0.491803278688525</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>133</v>
+        <v>3.08</v>
       </c>
       <c r="K43" t="n">
-        <v>0.07902970362911541</v>
+        <v>0.0608129459734964</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.48015863882046</v>
+        <v>0.0317533887029825</v>
       </c>
       <c r="M43" t="n">
-        <v>0.728281356698998</v>
+        <v>0.0886565115981979</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0594208297963274</v>
+        <v>1.97444629784079</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4281,7 +4301,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4310,7 +4330,1253 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0046122764578327</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.042654028436019</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.175355450236967</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.0002496582365003</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.498836064031609e-05</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0004047602311124</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.56036397812714</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9828282110922</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.221229557843731</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.497943419785249</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.84357964869776</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.976179223000688</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.946341463414634</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0682926829268293</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.941980404554555</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.432835820895522</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.189054726368159</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.0001612252678792</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.0003124984045531</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.79139186532485</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.999996517165747</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.108490566037736</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.278301886792453</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0006020604395604</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.000870019027204</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.000398973313792</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-4.01373626373626</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.485215165137621</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.630331753554502</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.0080274725274725</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0071274496274211</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0069727483457889</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.07902640939230759</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0194522822726342</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.02540416849837</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>134</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.11132494319932</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-8.979144367430591</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9.053199857587201</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.57561562925322</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0568117977442558</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.342471112106129</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.177236870066339</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.709260895683593</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.20948086257967</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7315</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0104898788927336</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0221346364260485</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0021122438958486</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.43402308854868</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.676015193370153</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1.63333984160601</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.48050909372322</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.514079994958291</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0258325645756457</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.09713055260008049</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.127236583010689</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.325347160902339</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.199806148115914</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>134</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.647032772364925</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-1.21455538881346</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.681041670612462</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.482860277884272</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mangawhero at DOC Headquarters</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.602660681823749</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>133</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.07902970362911541</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.48015863882046</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.728281356698998</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0594208297963274</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1807709</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5635868</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
+++ b/trend_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.537786246608458</v>
+        <v>0.978173956255732</v>
       </c>
       <c r="G2" t="n">
         <v>0.0204081632653061</v>
       </c>
       <c r="H2" t="n">
-        <v>0.836734693877551</v>
+        <v>0.8979591836734691</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0168802104556371</v>
+        <v>-0.397468745776456</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.369442144338995</v>
+        <v>-0.809840985374051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.30103021978022</v>
+        <v>-0.0943317592924493</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.73392219372335</v>
+        <v>-16.5611977406857</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.653581828683013</v>
+        <v>0.09284295386029</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.636363636363636</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0401078672209625</v>
+        <v>-0.19983282674772</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.120042921779531</v>
+        <v>-0.5174734356552541</v>
       </c>
       <c r="M3" t="n">
-        <v>0.227665653524483</v>
+        <v>0.0264074401568267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.08399641137736</v>
+        <v>-5.40088720939785</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.203508013635687</v>
+        <v>0.034821202399164</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.929824561403509</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.94</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0284306318681316</v>
+        <v>-0.06336540789155209</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.104677509748628</v>
+        <v>-0.120392214813702</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0444080167487338</v>
+        <v>-0.0051870799990889</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.259877805010343</v>
+        <v>-0.5792084816412441</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0771588275346073</v>
+        <v>0.438569045881871</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.482758620689655</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.018</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0011181122448979</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0.0011975269039111</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0023990147783251</v>
+        <v>0.0013583041600688</v>
       </c>
       <c r="N5" t="n">
-        <v>6.21173469387755</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.681845695317866</v>
+        <v>0.0954483353738738</v>
       </c>
       <c r="G6" t="n">
         <v>0.189655172413793</v>
       </c>
       <c r="H6" t="n">
-        <v>0.379310344827586</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.04357142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.97958399772579</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4.39373448872304</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>8.696428571428569</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.743525739476632</v>
+        <v>0.948468059007354</v>
       </c>
       <c r="G8" t="n">
-        <v>0.810344827586207</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="H8" t="n">
         <v>0.0689655172413793</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1190,21 +1190,21 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.119778689538625</v>
+        <v>0.268900607929494</v>
       </c>
       <c r="G9" t="n">
-        <v>0.258620689655172</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="H9" t="n">
-        <v>0.293103448275862</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1213,16 +1213,16 @@
         <v>0.008</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0004146431821136</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0.0003465340862842</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001003434065934</v>
+        <v>0.0012556708187037</v>
       </c>
       <c r="N9" t="n">
-        <v>5.18303977642012</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.059701058182845</v>
+        <v>0.0011652857358339</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>7.73</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0289999922854983</v>
+        <v>-0.0520419783096484</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0599118485268879</v>
+        <v>-0.0831034805298379</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.0217507963649082</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.375161607833096</v>
+        <v>-0.673246808662981</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.250770803696097</v>
+        <v>0.151669251040167</v>
       </c>
       <c r="G11" t="n">
-        <v>0.11864406779661</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H11" t="n">
-        <v>0.372881355932203</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002508585164835</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0003501821990192</v>
+        <v>-0.0005418940020514</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0012791794351488</v>
+        <v>0.0025456109990894</v>
       </c>
       <c r="N11" t="n">
-        <v>1.92968089602705</v>
+        <v>7.16738618524332</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.182589156149166</v>
+        <v>0.10036527693989</v>
       </c>
       <c r="G12" t="n">
-        <v>0.431034482758621</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H12" t="n">
-        <v>0.155172413793103</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0031623376623376</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0087395526730596</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.51762523191094</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1554,35 +1554,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.451529933336645</v>
+        <v>0.0105616676595511</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0862068965517241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.224137931034483</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.022</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0015729974160206</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0041553150155734</v>
+        <v>0.0004141900059871</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0047493108552529</v>
+        <v>0.0028988095238095</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>7.14998825463941</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0015177570374254</v>
+        <v>0.381332148060718</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.448275862068966</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.022</v>
+        <v>0.725</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0021153474903474</v>
+        <v>0.0075077081192189</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000916545789238</v>
+        <v>-0.0465294980303932</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0033530010465888</v>
+        <v>0.0840309167771022</v>
       </c>
       <c r="N14" t="n">
-        <v>9.61521586521588</v>
+        <v>1.03554594747847</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,46 +1725,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.502677022874542</v>
+        <v>0.33264910836878</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0096153846153846</v>
       </c>
       <c r="H15" t="n">
-        <v>0.827586206896552</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.745</v>
+        <v>2.225</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.0265484139307897</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.06467572634832799</v>
+        <v>-0.0845005763836939</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0616347496708599</v>
+        <v>0.127264808362369</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.19318714295684</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.658817118684755</v>
+        <v>0.9814700356188411</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0093457943925233</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H16" t="n">
-        <v>0.710280373831776</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0310851063829788</v>
+        <v>0.17153641648549</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.155286921606705</v>
+        <v>0.0764544285881389</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0824957651044608</v>
+        <v>0.270553025264685</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.29521276595745</v>
+        <v>4.901040471014</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9999853732884459</v>
+        <v>0.372756488462316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.520833333333333</v>
+        <v>0.836206896551724</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>10.91</v>
       </c>
       <c r="K17" t="n">
-        <v>0.237755688438805</v>
+        <v>-0.0073372121509064</v>
       </c>
       <c r="L17" t="n">
-        <v>0.163642053565799</v>
+        <v>-0.0334588853135229</v>
       </c>
       <c r="M17" t="n">
-        <v>0.300486452912088</v>
+        <v>0.0175929805436013</v>
       </c>
       <c r="N17" t="n">
-        <v>7.20471783147894</v>
+        <v>-0.0672521737021672</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2009,35 +2009,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0583573127038</v>
+        <v>0.693695112898456</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.853448275862069</v>
+        <v>0.26271186440678</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.955</v>
+        <v>0.018</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0283893948517236</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.050171703296704</v>
+        <v>-0.0005486470070704</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0008147778343943</v>
+        <v>0.0002859099804305</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.259145548623675</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,32 +2100,32 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.405310880049297</v>
+        <v>0.897778700411698</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.145299145299145</v>
       </c>
       <c r="H19" t="n">
-        <v>0.271186440677966</v>
+        <v>0.316239316239316</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.019</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002858235819796</v>
+        <v>-0.871204410216979</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005000787819801</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,47 +2180,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.998461418221528</v>
-      </c>
+          <t>&lt; 3 unique values</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.128205128205128</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="H20" t="n">
-        <v>0.324786324786325</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-0.993877551020408</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-1.48837487370583</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-0.200715446596665</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-8.28231292517007</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2247,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2259,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,24 +2270,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt; 3 unique values</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7541748208233811</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.982300884955752</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0353982300884956</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2350,46 +2350,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7169743657909859</v>
+        <v>1.86347195349545e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>0.610169491525424</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0593220338983051</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0005142599587912</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0007013055544927</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>7.34657083987441</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2441,46 +2441,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.93052184955264e-06</v>
+        <v>0.536137475928216</v>
       </c>
       <c r="G23" t="n">
-        <v>0.423728813559322</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.254237288135593</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00645</v>
+        <v>7.72</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003573874755381</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0114678178963895</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0006050436329069001</v>
+        <v>0.014105984152698</v>
       </c>
       <c r="N23" t="n">
-        <v>5.54089109361489</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2518,11 +2518,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2532,46 +2528,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.930546684283192</v>
+        <v>1.83747705528402e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6</v>
+        <v>0.294117647058824</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>7.71</v>
+        <v>0.013</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0117519305019305</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.0007285816394155</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0254345319510335</v>
+        <v>0.0013994252873563</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1524245201288</v>
+        <v>7.7187235841082</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2609,7 +2605,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2619,46 +2619,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.27168844316345</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0677966101694915</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.26271186440678</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3.41164978868959e-07</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.134453781512605</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.26890756302521</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
-        <v>0.012</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008529188946965</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0014955641492265</v>
+        <v>0.002039893081545</v>
       </c>
       <c r="N25" t="n">
-        <v>8.36195054945056</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2721,35 +2721,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.488535218000913</v>
+        <v>0.116892636684912</v>
       </c>
       <c r="G26" t="n">
-        <v>0.347457627118644</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.169491525423729</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.022</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0002608928571428</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.18587662337662</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2812,35 +2812,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.471149930875049</v>
+        <v>0.068884864217613</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.338983050847458</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.017201726844584</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0014562316455005</v>
+        <v>-0.0017584123882669</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0013026642671521</v>
+        <v>0.0375718866183488</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.52966571243882</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2892,46 +2892,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0218550783162825</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0062893081761006</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6163522012578621</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.120727712680319</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.245762711864407</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.022</v>
+        <v>2.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003087381971688</v>
+        <v>0.0734237938596492</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0136528947583411</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0007522452252832</v>
+        <v>0.134704050753705</v>
       </c>
       <c r="N28" t="n">
-        <v>1.40335544167642</v>
+        <v>3.3374451754386</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2983,46 +2983,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.487010022567875</v>
+        <v>0.951002075538309</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0359712230215827</v>
       </c>
       <c r="H29" t="n">
-        <v>0.754237288135593</v>
+        <v>0.438848920863309</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>0.72</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.0547544585164125</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.019049481574212</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0208714285714286</v>
+        <v>0.110596552012556</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.56441310046893</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3074,14 +3074,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0047465116444821</v>
+        <v>0.011967241368455</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0066666666666666</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.633333333333333</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.2</v>
+        <v>10.91</v>
       </c>
       <c r="K30" t="n">
-        <v>0.102713723284589</v>
+        <v>-0.0199499317250795</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0383953467343734</v>
+        <v>-0.0374422623607464</v>
       </c>
       <c r="M30" t="n">
-        <v>0.165746303874648</v>
+        <v>-0.0059182947715114</v>
       </c>
       <c r="N30" t="n">
-        <v>4.66880560384497</v>
+        <v>-0.182859135885239</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3165,14 +3165,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3180,31 +3180,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.976228888398368</v>
+        <v>0.0004353315549957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0364963503649635</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="H31" t="n">
-        <v>0.437956204379562</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>0.016</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0679816824073872</v>
+        <v>0.0004288649706457</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0097595439503546</v>
+        <v>0.0002495749607609</v>
       </c>
       <c r="M31" t="n">
-        <v>0.124870497639385</v>
+        <v>0.0006630213550979001</v>
       </c>
       <c r="N31" t="n">
-        <v>1.94233378306821</v>
+        <v>2.68040606653621</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3267,35 +3267,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.01982158295865</v>
+        <v>0.629184849258682</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.102272727272727</v>
       </c>
       <c r="H32" t="n">
-        <v>0.790123456790123</v>
+        <v>0.335227272727273</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.925</v>
+        <v>12</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0232784522003034</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0439096301276218</v>
+        <v>-0.249654219494499</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0033440673242662</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.213075077348315</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3347,46 +3347,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.96303302426766e-05</v>
+        <v>0.913630823417543</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0424242424242424</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.000571819960861</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0003330547112462</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0007501173910514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.5738747553816</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,14 +3438,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3453,25 +3453,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.787311264464182</v>
+        <v>0.404303165913862</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.712574850299401</v>
       </c>
       <c r="H34" t="n">
-        <v>0.335365853658537</v>
+        <v>0.0419161676646707</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>12</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.399835796387521</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3529,34 +3529,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.876024997669802</v>
+        <v>0.0003681702032896</v>
       </c>
       <c r="G35" t="n">
-        <v>0.962264150943396</v>
+        <v>0.413173652694611</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.203592814371257</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0002498730326922</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3631,35 +3631,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.270869474302088</v>
+        <v>0.767724466790114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.696774193548387</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0451612903225806</v>
+        <v>0.526011560693642</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.71</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0037538540596095</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0047584977359062</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0124303417707486</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.048688120098697</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,11 +3697,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3722,35 +3718,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0034778340498568</v>
+        <v>0.0744297136669695</v>
       </c>
       <c r="G37" t="n">
-        <v>0.432258064516129</v>
+        <v>0.0955056179775281</v>
       </c>
       <c r="H37" t="n">
-        <v>0.219354838709677</v>
+        <v>0.258426966292135</v>
       </c>
       <c r="I37" t="n">
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0066</v>
+        <v>0.013</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.0002141183219433</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.48148218698655e-05</v>
+        <v>0.0004973796003795</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.64706401494883</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3759,7 +3755,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3790,7 +3786,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3802,46 +3798,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.91824950874509</v>
+        <v>0.470519017039415</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5590062111801239</v>
+        <v>0.299435028248588</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.72</v>
+        <v>0.08</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0077375348358172</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0011885779368695</v>
+        <v>-0.0007126633112688</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0182703956871288</v>
+        <v>0.0010000823337828</v>
       </c>
       <c r="N38" t="n">
-        <v>0.10022713517898</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3850,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3879,7 +3875,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3900,35 +3900,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.25134209252373</v>
+        <v>0.0204782402873693</v>
       </c>
       <c r="G39" t="n">
-        <v>0.102409638554217</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="H39" t="n">
-        <v>0.259036144578313</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="K39" t="n">
-        <v>9.1587353179901e-05</v>
+        <v>0.0002781998120109</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0003655959146443</v>
+        <v>0.0005550811146760001</v>
       </c>
       <c r="N39" t="n">
-        <v>0.704518101383854</v>
+        <v>1.32476100957619</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,46 +3980,46 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.576222274786182</v>
+        <v>0.227743990890577</v>
       </c>
       <c r="G40" t="n">
-        <v>0.103030303030303</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.315151515151515</v>
+        <v>0.689265536723164</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08</v>
+        <v>0.72</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.0035740783062756</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0010499089995041</v>
+        <v>-0.006653412888611</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0005887986392907</v>
+        <v>0.0174760765550239</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.496399764760501</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4071,14 +4071,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4086,31 +4086,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0192156778393202</v>
+        <v>0.997902680558219</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0121212121212121</v>
+        <v>0.0289017341040462</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.468208092485549</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.021</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0003314428312159</v>
+        <v>0.0529619695615446</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.0206569398679871</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0006240850578232</v>
+        <v>0.0837262485018435</v>
       </c>
       <c r="N41" t="n">
-        <v>1.57829919626653</v>
+        <v>1.70845063101757</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4162,11 +4162,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4177,31 +4177,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.290701941832303</v>
+        <v>0.0898765633501139</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.037914691943128</v>
       </c>
       <c r="H42" t="n">
-        <v>0.703030303030303</v>
+        <v>0.175355450236967</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0.71</v>
+        <v>0.016</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0034127734731084</v>
+        <v>0.0001247438670094</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0085589684115281</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0177779333467045</v>
+        <v>0.0002957261385855</v>
       </c>
       <c r="N42" t="n">
-        <v>0.480672320156123</v>
+        <v>0.779649168809297</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4253,14 +4253,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4268,31 +4268,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.999874320863259</v>
+        <v>0.873033577873035</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0273224043715847</v>
+        <v>0.10952380952381</v>
       </c>
       <c r="H43" t="n">
-        <v>0.491803278688525</v>
+        <v>0.295238095238095</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.08</v>
+        <v>12</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0608129459734964</v>
+        <v>-0.0904756006935843</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0317533887029825</v>
+        <v>-0.335857931933316</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0886565115981979</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.97444629784079</v>
+        <v>-0.753963339113203</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4344,46 +4344,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0046122764578327</v>
+        <v>0.986593373809073</v>
       </c>
       <c r="G44" t="n">
-        <v>0.042654028436019</v>
+        <v>0.951219512195122</v>
       </c>
       <c r="H44" t="n">
-        <v>0.175355450236967</v>
+        <v>0.06341463414634151</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>6.498836064031609e-05</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0004047602311124</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.56036397812714</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4446,35 +4446,35 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9828282110922</v>
+        <v>0.708636913610876</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0.407960199004975</v>
       </c>
       <c r="H45" t="n">
-        <v>0.285714285714286</v>
+        <v>0.189054726368159</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>12</v>
+        <v>0.008</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.221229557843731</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.497943419785249</v>
+        <v>-0.0001425252042521</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.84357964869776</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4526,46 +4526,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.976179223000688</v>
+        <v>0.997926270179606</v>
       </c>
       <c r="G46" t="n">
-        <v>0.946341463414634</v>
+        <v>0.10377358490566</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0682926829268293</v>
+        <v>0.273584905660377</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005</v>
+        <v>0.0145</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-0.0003632521133764</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.0006248571713654</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-0.0001426492953563</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-2.50518698880296</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4617,46 +4617,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.941980404554555</v>
+        <v>0.334593992277299</v>
       </c>
       <c r="G47" t="n">
-        <v>0.432835820895522</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.189054726368159</v>
+        <v>0.630331753554502</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0001612252678792</v>
+        <v>0.0017804045820131</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0003124984045531</v>
+        <v>-0.0056165896952476</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.0087534634542978</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.79139186532485</v>
+        <v>0.254343511716166</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4708,46 +4708,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.999996517165747</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.108490566037736</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.278301886792453</v>
-      </c>
       <c r="I48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.015</v>
+        <v>0.68</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0006020604395604</v>
+        <v>0.0154972260430863</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.000870019027204</v>
+        <v>-0.0038654667722091</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.000398973313792</v>
+        <v>0.026107155459116</v>
       </c>
       <c r="N48" t="n">
-        <v>-4.01373626373626</v>
+        <v>2.27900382986562</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4785,11 +4785,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4799,46 +4795,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.485215165137621</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.630331753554502</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7</v>
+        <v>135.2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.834946372195276</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0080274725274725</v>
+        <v>-8.979144367430591</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0071274496274211</v>
+        <v>5.74027560265571</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.61756388475982</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4876,11 +4872,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4890,7 +4882,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4905,7 +4897,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4917,19 +4909,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.68</v>
+        <v>8.01</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0069727483457889</v>
+        <v>0.09571438648122051</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.07902640939230759</v>
+        <v>-0.102719523206682</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0194522822726342</v>
+        <v>0.234727562095449</v>
       </c>
       <c r="N50" t="n">
-        <v>-1.02540416849837</v>
+        <v>1.19493616081424</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4938,7 +4930,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4977,11 +4969,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4992,7 +4984,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.768783636774762</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5004,19 +4996,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>134</v>
+        <v>0.7065</v>
       </c>
       <c r="K51" t="n">
-        <v>2.11132494319932</v>
+        <v>-0.007865410497981101</v>
       </c>
       <c r="L51" t="n">
-        <v>-8.979144367430591</v>
+        <v>-0.0201334704944614</v>
       </c>
       <c r="M51" t="n">
-        <v>9.053199857587201</v>
+        <v>0.009905019257286299</v>
       </c>
       <c r="N51" t="n">
-        <v>1.57561562925322</v>
+        <v>-1.11329235640215</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5025,7 +5017,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5064,11 +5056,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5079,7 +5071,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.231216363225238</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5091,19 +5083,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>8.01</v>
+        <v>131.5</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0568117977442558</v>
+        <v>1.13982854864433</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.342471112106129</v>
+        <v>-0.8344533823549189</v>
       </c>
       <c r="M52" t="n">
-        <v>0.177236870066339</v>
+        <v>2.6997584494522</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.709260895683593</v>
+        <v>0.866789770832193</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5112,7 +5104,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5151,7 +5143,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5166,31 +5158,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.20948086257967</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.7315</v>
+        <v>7.94</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0104898788927336</v>
+        <v>0.0349282786885246</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0221346364260485</v>
+        <v>-0.0620328857288064</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0021122438958486</v>
+        <v>0.153290572960233</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.43402308854868</v>
+        <v>0.439902754263534</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5199,7 +5191,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5238,11 +5230,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -5253,31 +5245,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.639742606431872</v>
+        <v>0.148771894036179</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>131.5</v>
+        <v>0.723</v>
       </c>
       <c r="K54" t="n">
-        <v>0.676015193370153</v>
+        <v>-0.005482587811468</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.63333984160601</v>
+        <v>-0.0133009223255335</v>
       </c>
       <c r="M54" t="n">
-        <v>2.48050909372322</v>
+        <v>0.003260902329839</v>
       </c>
       <c r="N54" t="n">
-        <v>0.514079994958291</v>
+        <v>-0.758310900617985</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5286,7 +5278,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5325,11 +5317,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -5340,31 +5332,31 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.295752518497458</v>
+        <v>0.327823592764339</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>7.94</v>
+        <v>134</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0258325645756457</v>
+        <v>-0.311447452568749</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.09713055260008049</v>
+        <v>-1.20431309964728</v>
       </c>
       <c r="M55" t="n">
-        <v>0.127236583010689</v>
+        <v>0.727433885344892</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.325347160902339</v>
+        <v>-0.23242347206623</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5412,7 +5404,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5427,31 +5419,31 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.199806148115914</v>
+        <v>0.60800977310881</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.933333333333333</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>134</v>
+        <v>7.94</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.647032772364925</v>
+        <v>0.0101017384433031</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.21455538881346</v>
+        <v>-0.0312496364549303</v>
       </c>
       <c r="M56" t="n">
-        <v>0.681041670612462</v>
+        <v>0.109202351425437</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.482860277884272</v>
+        <v>0.127225924978628</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5460,7 +5452,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5510,35 +5502,35 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.602660681823749</v>
+        <v>0.5</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>133</v>
+        <v>133.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0.07902970362911541</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.48015863882046</v>
+        <v>-0.565682705116361</v>
       </c>
       <c r="M57" t="n">
-        <v>0.728281356698998</v>
+        <v>0.472704911992373</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0594208297963274</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>

--- a/trend_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
+++ b/trend_results/Rivers/MangawheroatDOCHeadquarters_5ea518c1ad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="71">
   <si>
     <t>site name</t>
   </si>
@@ -139,58 +139,61 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
+    <t>Long run of single value</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
-    <t>&lt; 3 unique values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
@@ -675,37 +678,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.978173956255732</v>
+        <v>0.85556940823064</v>
       </c>
       <c r="G2">
-        <v>0.0204081632653061</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H2">
-        <v>0.8979591836734691</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>2.425</v>
       </c>
       <c r="K2">
-        <v>-0.397468745776456</v>
+        <v>-0.25438736027515</v>
       </c>
       <c r="L2">
-        <v>-0.809840985374051</v>
+        <v>-0.641194043861002</v>
       </c>
       <c r="M2">
-        <v>-0.0943317592924493</v>
+        <v>0.090354906894679</v>
       </c>
       <c r="N2">
-        <v>-16.5611977406857</v>
+        <v>-10.4902004237175</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q2">
         <v>1807709</v>
@@ -714,19 +717,19 @@
         <v>5635868</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -746,37 +749,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.09284295386029</v>
+        <v>0.009607363039797</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.628571428571429</v>
+        <v>0.7307692307692309</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3">
-        <v>-0.19983282674772</v>
+        <v>-0.6067275747508299</v>
       </c>
       <c r="L3">
-        <v>-0.5174734356552541</v>
+        <v>-0.998873693154266</v>
       </c>
       <c r="M3">
-        <v>0.0264074401568267</v>
+        <v>-0.240709215359248</v>
       </c>
       <c r="N3">
-        <v>-5.40088720939785</v>
+        <v>-16.6226732808447</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q3">
         <v>1807709</v>
@@ -785,19 +788,19 @@
         <v>5635868</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -817,37 +820,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.034821202399164</v>
+        <v>0.005082600945978</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.842105263157895</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.94</v>
+        <v>10.91</v>
       </c>
       <c r="K4">
-        <v>-0.06336540789155209</v>
+        <v>-0.0790204326923078</v>
       </c>
       <c r="L4">
         <v>-0.120392214813702</v>
       </c>
       <c r="M4">
-        <v>-0.0051870799990889</v>
+        <v>-0.020804668406802</v>
       </c>
       <c r="N4">
-        <v>-0.5792084816412441</v>
+        <v>-0.724293608545443</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4">
         <v>1807709</v>
@@ -856,19 +859,19 @@
         <v>5635868</v>
       </c>
       <c r="S4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -885,40 +888,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.438569045881871</v>
+        <v>0.0594103797072099</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.46551724137931</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0010916019127316</v>
       </c>
       <c r="L5">
-        <v>-0.0011975269039111</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0013583041600688</v>
+        <v>0.0024027161021514</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.42118772195071</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5">
         <v>1807709</v>
@@ -927,19 +930,19 @@
         <v>5635868</v>
       </c>
       <c r="S5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -956,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.0954483353738738</v>
+        <v>0.0806172535313511</v>
       </c>
       <c r="G6">
-        <v>0.189655172413793</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H6">
-        <v>0.413793103448276</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K6">
         <v>1.04357142857143</v>
@@ -980,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.39373448872304</v>
+        <v>4.25020670435249</v>
       </c>
       <c r="N6">
-        <v>8.696428571428569</v>
+        <v>8.55386416861827</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>1807709</v>
@@ -998,19 +1001,19 @@
         <v>5635868</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1027,22 +1030,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>0.981818181818182</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="H7">
-        <v>0.0363636363636364</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>1807709</v>
@@ -1051,19 +1054,19 @@
         <v>5635868</v>
       </c>
       <c r="S7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,13 +1083,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>0.948468059007354</v>
+        <v>43</v>
       </c>
       <c r="G8">
-        <v>0.827586206896552</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="H8">
         <v>0.0689655172413793</v>
@@ -1094,23 +1094,8 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0.001</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s">
         <v>51</v>
@@ -1122,19 +1107,19 @@
         <v>5635868</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0.268900607929494</v>
+        <v>0.8779049611090191</v>
       </c>
       <c r="G9">
-        <v>0.224137931034483</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="H9">
-        <v>0.344827586206897</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1169,22 +1154,22 @@
         <v>0.008</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-0.0003432800751879</v>
       </c>
       <c r="L9">
-        <v>-0.0003465340862842</v>
+        <v>-0.0016033635920737</v>
       </c>
       <c r="M9">
-        <v>0.0012556708187037</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>-4.29100093984962</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1807709</v>
@@ -1193,19 +1178,19 @@
         <v>5635868</v>
       </c>
       <c r="S9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,37 +1210,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0011652857358339</v>
+        <v>0.039927052223463</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.736842105263158</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.73</v>
+        <v>7.695</v>
       </c>
       <c r="K10">
-        <v>-0.0520419783096484</v>
+        <v>-0.0336635944700461</v>
       </c>
       <c r="L10">
-        <v>-0.0831034805298379</v>
+        <v>-0.0671804178560543</v>
       </c>
       <c r="M10">
-        <v>-0.0217507963649082</v>
+        <v>-0.0022697340232246</v>
       </c>
       <c r="N10">
-        <v>-0.673246808662981</v>
+        <v>-0.437473612346278</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1807709</v>
@@ -1264,16 +1249,16 @@
         <v>5635868</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1290,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11">
-        <v>0.151669251040167</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.0847457627118644</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H11">
-        <v>0.457627118644068</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1308,22 +1293,22 @@
         <v>0.014</v>
       </c>
       <c r="K11">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0005418940020514</v>
+        <v>-0.002194290966364</v>
       </c>
       <c r="M11">
-        <v>0.0025456109990894</v>
+        <v>0.0021278355520453</v>
       </c>
       <c r="N11">
-        <v>7.16738618524332</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1807709</v>
@@ -1332,19 +1317,19 @@
         <v>5635868</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1364,37 +1349,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.10036527693989</v>
+        <v>0.896687200116201</v>
       </c>
       <c r="G12">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.241379310344828</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.07000000000000001</v>
       </c>
       <c r="K12">
-        <v>0.0031623376623376</v>
+        <v>-0.0034360301034807</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.008195587135377699</v>
       </c>
       <c r="M12">
-        <v>0.0087395526730596</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>4.51762523191094</v>
+        <v>-4.90861443354388</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1807709</v>
@@ -1403,19 +1388,19 @@
         <v>5635868</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,13 +1420,13 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0105616676595511</v>
+        <v>0.223711193505776</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.46551724137931</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1450,19 +1435,19 @@
         <v>0.022</v>
       </c>
       <c r="K13">
-        <v>0.0015729974160206</v>
+        <v>0.0004465158924205</v>
       </c>
       <c r="L13">
-        <v>0.0004141900059871</v>
+        <v>-0.0005918675920682</v>
       </c>
       <c r="M13">
-        <v>0.0028988095238095</v>
+        <v>0.0018300355154318</v>
       </c>
       <c r="N13">
-        <v>7.14998825463941</v>
+        <v>2.02961769282063</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" t="s">
         <v>54</v>
@@ -1474,19 +1459,19 @@
         <v>5635868</v>
       </c>
       <c r="S13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1491,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.381332148060718</v>
+        <v>0.773874199478183</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.810344827586207</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.725</v>
+        <v>0.68</v>
       </c>
       <c r="K14">
-        <v>0.0075077081192189</v>
+        <v>-0.0342154566744731</v>
       </c>
       <c r="L14">
-        <v>-0.0465294980303932</v>
+        <v>-0.09318454063435851</v>
       </c>
       <c r="M14">
-        <v>0.0840309167771022</v>
+        <v>0.0245747106334673</v>
       </c>
       <c r="N14">
-        <v>1.03554594747847</v>
+        <v>-5.03168480506957</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1807709</v>
@@ -1545,19 +1530,19 @@
         <v>5635868</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,43 +1556,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.33264910836878</v>
+        <v>0.551052947866003</v>
       </c>
       <c r="G15">
-        <v>0.0096153846153846</v>
+        <v>0.009803921568627401</v>
       </c>
       <c r="H15">
-        <v>0.701923076923077</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>2.225</v>
+        <v>2.35</v>
       </c>
       <c r="K15">
-        <v>0.0265484139307897</v>
+        <v>-0.0214432485322896</v>
       </c>
       <c r="L15">
-        <v>-0.0845005763836939</v>
+        <v>-0.13294027686005</v>
       </c>
       <c r="M15">
-        <v>0.127264808362369</v>
+        <v>0.0512468121781097</v>
       </c>
       <c r="N15">
-        <v>1.19318714295684</v>
+        <v>-0.9124786609484939</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1807709</v>
@@ -1616,19 +1601,19 @@
         <v>5635868</v>
       </c>
       <c r="S15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,37 +1633,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.9814700356188411</v>
+        <v>0.9364670872830479</v>
       </c>
       <c r="G16">
-        <v>0.0454545454545455</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="H16">
-        <v>0.545454545454545</v>
+        <v>0.544303797468354</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="K16">
-        <v>0.17153641648549</v>
+        <v>0.114858490566038</v>
       </c>
       <c r="L16">
-        <v>0.0764544285881389</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.270553025264685</v>
+        <v>0.216192088322848</v>
       </c>
       <c r="N16">
-        <v>4.901040471014</v>
+        <v>3.26302530017153</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>1807709</v>
@@ -1687,19 +1672,19 @@
         <v>5635868</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,37 +1704,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.372756488462316</v>
+        <v>0.041176107526403</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.836206896551724</v>
+        <v>0.829059829059829</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.91</v>
+        <v>10.97</v>
       </c>
       <c r="K17">
-        <v>-0.0073372121509064</v>
+        <v>-0.0159934318555008</v>
       </c>
       <c r="L17">
-        <v>-0.0334588853135229</v>
+        <v>-0.0383269719349747</v>
       </c>
       <c r="M17">
-        <v>0.0175929805436013</v>
+        <v>-0.0019087083528411</v>
       </c>
       <c r="N17">
-        <v>-0.0672521737021672</v>
+        <v>-0.145792450824985</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1807709</v>
@@ -1758,19 +1743,19 @@
         <v>5635868</v>
       </c>
       <c r="S17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1787,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>0.693695112898456</v>
+        <v>0.68450271199194</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1808,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0005486470070704</v>
+        <v>-0.0004372023707149</v>
       </c>
       <c r="M18">
-        <v>0.0002859099804305</v>
+        <v>0.0002406340786439</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1807709</v>
@@ -1829,19 +1814,19 @@
         <v>5635868</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.897778700411698</v>
+        <v>0.511040631204108</v>
       </c>
       <c r="G19">
-        <v>0.145299145299145</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H19">
-        <v>0.316239316239316</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1879,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.871204410216979</v>
+        <v>-0.302165589054674</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1888,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q19">
         <v>1807709</v>
@@ -1900,19 +1885,19 @@
         <v>5635868</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1929,22 +1914,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>0.982456140350877</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="H20">
-        <v>0.0350877192982456</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1807709</v>
@@ -1953,19 +1938,19 @@
         <v>5635868</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1982,13 +1967,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>0.7541748208233811</v>
+        <v>0.831622166849191</v>
       </c>
       <c r="G21">
-        <v>0.6949152542372879</v>
+        <v>0.788135593220339</v>
       </c>
       <c r="H21">
         <v>0.0593220338983051</v>
@@ -2012,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>1807709</v>
@@ -2024,19 +2009,19 @@
         <v>5635868</v>
       </c>
       <c r="S21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2053,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>1.86347195349545E-06</v>
+        <v>0.0137601958309602</v>
       </c>
       <c r="G22">
-        <v>0.372881355932203</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="H22">
-        <v>0.254237288135593</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2071,22 +2056,22 @@
         <v>0.007</v>
       </c>
       <c r="K22">
-        <v>0.0005142599587912</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0007013055544927</v>
+        <v>0.0004165907189413</v>
       </c>
       <c r="N22">
-        <v>7.34657083987441</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q22">
         <v>1807709</v>
@@ -2095,19 +2080,19 @@
         <v>5635868</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2124,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.536137475928216</v>
+        <v>0.08949676383935801</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.568965517241379</v>
+        <v>0.594827586206897</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2142,22 +2127,22 @@
         <v>7.72</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-0.0100343406593406</v>
       </c>
       <c r="L23">
-        <v>-0.0114678178963895</v>
+        <v>-0.0218548990276739</v>
       </c>
       <c r="M23">
-        <v>0.014105984152698</v>
+        <v>0.0021078755544304</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-0.129978505950008</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q23">
         <v>1807709</v>
@@ -2166,16 +2151,16 @@
         <v>5635868</v>
       </c>
       <c r="S23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2192,40 +2177,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>1.83747705528402E-06</v>
+        <v>0.0073807028338255</v>
       </c>
       <c r="G24">
-        <v>0.134453781512605</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="H24">
-        <v>0.294117647058824</v>
+        <v>0.319327731092437</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
         <v>0.013</v>
       </c>
       <c r="K24">
-        <v>0.001003434065934</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L24">
-        <v>0.0007285816394155</v>
+        <v>0.0001519477517015</v>
       </c>
       <c r="M24">
-        <v>0.0013994252873563</v>
+        <v>0.0010013772983425</v>
       </c>
       <c r="N24">
-        <v>7.7187235841082</v>
+        <v>3.8593617920541</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1807709</v>
@@ -2234,19 +2219,19 @@
         <v>5635868</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2263,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>0.27168844316345</v>
+        <v>0.774280793286602</v>
       </c>
       <c r="G25">
         <v>0.0677966101694915</v>
       </c>
       <c r="H25">
-        <v>0.26271186440678</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2284,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0022986154814348</v>
       </c>
       <c r="M25">
-        <v>0.002039893081545</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1807709</v>
@@ -2305,19 +2290,19 @@
         <v>5635868</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2331,19 +2316,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>0.116892636684912</v>
+        <v>0.415634370782586</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.23728813559322</v>
+        <v>0.245762711864407</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2352,22 +2337,22 @@
         <v>0.022</v>
       </c>
       <c r="K26">
-        <v>0.0002608928571428</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0002859099804305</v>
       </c>
       <c r="M26">
-        <v>0.000668956043956</v>
+        <v>0.0005013308849625</v>
       </c>
       <c r="N26">
-        <v>1.18587662337662</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1807709</v>
@@ -2376,19 +2361,19 @@
         <v>5635868</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2408,13 +2393,13 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.068884864217613</v>
+        <v>0.435320288963796</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.728813559322034</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2423,22 +2408,22 @@
         <v>0.68</v>
       </c>
       <c r="K27">
-        <v>0.017201726844584</v>
+        <v>0.0016054945054945</v>
       </c>
       <c r="L27">
-        <v>-0.0017584123882669</v>
+        <v>-0.0141051572660341</v>
       </c>
       <c r="M27">
-        <v>0.0375718866183488</v>
+        <v>0.0206655383962842</v>
       </c>
       <c r="N27">
-        <v>2.52966571243882</v>
+        <v>0.236102133160957</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1807709</v>
@@ -2447,19 +2432,19 @@
         <v>5635868</v>
       </c>
       <c r="S27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2473,40 +2458,40 @@
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0218550783162825</v>
+        <v>0.255639507649799</v>
       </c>
       <c r="G28">
-        <v>0.0062893081761006</v>
+        <v>0.00625</v>
       </c>
       <c r="H28">
-        <v>0.6163522012578621</v>
+        <v>0.59375</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="K28">
-        <v>0.0734237938596492</v>
+        <v>0.0250057051574623</v>
       </c>
       <c r="L28">
-        <v>0.0136528947583411</v>
+        <v>-0.0472211484686953</v>
       </c>
       <c r="M28">
-        <v>0.134704050753705</v>
+        <v>0.0746534360883476</v>
       </c>
       <c r="N28">
-        <v>3.3374451754386</v>
+        <v>1.06407255989201</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" t="s">
         <v>54</v>
@@ -2518,19 +2503,19 @@
         <v>5635868</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2550,37 +2535,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.951002075538309</v>
+        <v>0.9628037333862109</v>
       </c>
       <c r="G29">
-        <v>0.0359712230215827</v>
+        <v>0.0381679389312977</v>
       </c>
       <c r="H29">
-        <v>0.438848920863309</v>
+        <v>0.450381679389313</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K29">
-        <v>0.0547544585164125</v>
+        <v>0.0678527667984189</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.110596552012556</v>
+        <v>0.127264808362369</v>
       </c>
       <c r="N29">
-        <v>1.56441310046893</v>
+        <v>1.9956696117182</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q29">
         <v>1807709</v>
@@ -2589,19 +2574,19 @@
         <v>5635868</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2621,13 +2606,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.011967241368455</v>
+        <v>0.024906040164003</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.758620689655172</v>
+        <v>0.76</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2636,22 +2621,22 @@
         <v>10.91</v>
       </c>
       <c r="K30">
-        <v>-0.0199499317250795</v>
+        <v>-0.0149081632653058</v>
       </c>
       <c r="L30">
-        <v>-0.0374422623607464</v>
+        <v>-0.0317588990359686</v>
       </c>
       <c r="M30">
-        <v>-0.0059182947715114</v>
+        <v>-0.0024968496481264</v>
       </c>
       <c r="N30">
-        <v>-0.182859135885239</v>
+        <v>-0.136646776033967</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q30">
         <v>1807709</v>
@@ -2660,19 +2645,19 @@
         <v>5635868</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2692,13 +2677,13 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0004353315549957</v>
+        <v>0.0066775321547331</v>
       </c>
       <c r="G31">
-        <v>0.0395480225988701</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H31">
-        <v>0.186440677966102</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2707,22 +2692,22 @@
         <v>0.016</v>
       </c>
       <c r="K31">
-        <v>0.0004288649706457</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L31">
-        <v>0.0002495749607609</v>
+        <v>7.68462023984851E-05</v>
       </c>
       <c r="M31">
-        <v>0.0006630213550979001</v>
+        <v>0.000570058275153</v>
       </c>
       <c r="N31">
-        <v>2.68040606653621</v>
+        <v>2.07717242948135</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q31">
         <v>1807709</v>
@@ -2731,19 +2716,19 @@
         <v>5635868</v>
       </c>
       <c r="S31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2760,19 +2745,19 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.629184849258682</v>
+        <v>0.559734157607139</v>
       </c>
       <c r="G32">
         <v>0.102272727272727</v>
       </c>
       <c r="H32">
-        <v>0.335227272727273</v>
+        <v>0.357954545454545</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>12</v>
@@ -2781,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>-0.249654219494499</v>
+        <v>-0.178809994051564</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2790,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1807709</v>
@@ -2802,19 +2787,19 @@
         <v>5635868</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2831,19 +2816,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33">
-        <v>0.913630823417543</v>
+        <v>0.699512899541191</v>
       </c>
       <c r="G33">
-        <v>0.9649122807017541</v>
+        <v>0.953216374269006</v>
       </c>
       <c r="H33">
-        <v>0.0526315789473684</v>
+        <v>0.0584795321637427</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0.005</v>
@@ -2861,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1807709</v>
@@ -2873,19 +2858,19 @@
         <v>5635868</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2902,16 +2887,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>0.404303165913862</v>
+        <v>0.496326298345667</v>
       </c>
       <c r="G34">
-        <v>0.712574850299401</v>
+        <v>0.72316384180791</v>
       </c>
       <c r="H34">
-        <v>0.0419161676646707</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2932,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1807709</v>
@@ -2944,19 +2929,19 @@
         <v>5635868</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2973,22 +2958,22 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>0.0003681702032896</v>
+        <v>0.0113306531276911</v>
       </c>
       <c r="G35">
-        <v>0.413173652694611</v>
+        <v>0.418079096045198</v>
       </c>
       <c r="H35">
-        <v>0.203592814371257</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="I35">
         <v>3</v>
       </c>
       <c r="J35">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2997,16 +2982,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0002498730326922</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>1807709</v>
@@ -3015,19 +3000,19 @@
         <v>5635868</v>
       </c>
       <c r="S35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3041,43 +3026,43 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.767724466790114</v>
+        <v>0.398564370813264</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.526011560693642</v>
+        <v>0.497109826589595</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.71</v>
+        <v>7.72</v>
       </c>
       <c r="K36">
-        <v>0.0037538540596095</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="L36">
-        <v>-0.0047584977359062</v>
+        <v>-0.009969615797158399</v>
       </c>
       <c r="M36">
-        <v>0.0124303417707486</v>
+        <v>0.0074474126477043</v>
       </c>
       <c r="N36">
-        <v>0.048688120098697</v>
+        <v>-0.0143806006582985</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q36">
         <v>1807709</v>
@@ -3086,16 +3071,16 @@
         <v>5635868</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3112,16 +3097,16 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>0.0744297136669695</v>
+        <v>0.188655354815349</v>
       </c>
       <c r="G37">
         <v>0.0955056179775281</v>
       </c>
       <c r="H37">
-        <v>0.258426966292135</v>
+        <v>0.269662921348315</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -3130,22 +3115,22 @@
         <v>0.013</v>
       </c>
       <c r="K37">
-        <v>0.0002141183219433</v>
+        <v>0.0001425644028103</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.0004973796003795</v>
+        <v>0.0004281603373767</v>
       </c>
       <c r="N37">
-        <v>1.64706401494883</v>
+        <v>1.09664925238696</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q37">
         <v>1807709</v>
@@ -3154,19 +3139,19 @@
         <v>5635868</v>
       </c>
       <c r="S37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3180,43 +3165,43 @@
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>0.470519017039415</v>
+        <v>0.805786177208046</v>
       </c>
       <c r="G38">
-        <v>0.096045197740113</v>
+        <v>0.07344632768361579</v>
       </c>
       <c r="H38">
-        <v>0.299435028248588</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.08</v>
+        <v>0.074</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.0007126633112688</v>
+        <v>-0.0014997966952666</v>
       </c>
       <c r="M38">
-        <v>0.0010000823337828</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1807709</v>
@@ -3225,19 +3210,19 @@
         <v>5635868</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3257,37 +3242,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.0204782402873693</v>
+        <v>0.0288379119135413</v>
       </c>
       <c r="G39">
-        <v>0.0112994350282486</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H39">
-        <v>0.192090395480226</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0.021</v>
       </c>
       <c r="K39">
-        <v>0.0002781998120109</v>
+        <v>0.0002495729707091</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.0005550811146760001</v>
+        <v>0.0004980279278295</v>
       </c>
       <c r="N39">
-        <v>1.32476100957619</v>
+        <v>1.18844271766279</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q39">
         <v>1807709</v>
@@ -3296,19 +3281,19 @@
         <v>5635868</v>
       </c>
       <c r="S39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3322,43 +3307,43 @@
         <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.227743990890577</v>
+        <v>0.709065868533998</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.689265536723164</v>
+        <v>0.655367231638418</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="K40">
-        <v>0.0035740783062756</v>
+        <v>-0.0036424942653165</v>
       </c>
       <c r="L40">
-        <v>-0.006653412888611</v>
+        <v>-0.0138544201419339</v>
       </c>
       <c r="M40">
-        <v>0.0174760765550239</v>
+        <v>0.0067563299869166</v>
       </c>
       <c r="N40">
-        <v>0.496399764760501</v>
+        <v>-0.535660921370083</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1807709</v>
@@ -3367,19 +3352,19 @@
         <v>5635868</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,13 +3384,13 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.997902680558219</v>
+        <v>0.995735514397629</v>
       </c>
       <c r="G41">
-        <v>0.0289017341040462</v>
+        <v>0.0306748466257669</v>
       </c>
       <c r="H41">
-        <v>0.468208092485549</v>
+        <v>0.466257668711656</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -3414,22 +3399,22 @@
         <v>3.1</v>
       </c>
       <c r="K41">
-        <v>0.0529619695615446</v>
+        <v>0.0561059907834101</v>
       </c>
       <c r="L41">
-        <v>0.0206569398679871</v>
+        <v>0.0193324448649737</v>
       </c>
       <c r="M41">
-        <v>0.0837262485018435</v>
+        <v>0.09158623711977031</v>
       </c>
       <c r="N41">
-        <v>1.70845063101757</v>
+        <v>1.80987067043258</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q41">
         <v>1807709</v>
@@ -3438,19 +3423,19 @@
         <v>5635868</v>
       </c>
       <c r="S41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3470,13 +3455,13 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0898765633501139</v>
+        <v>0.0876533073559629</v>
       </c>
       <c r="G42">
-        <v>0.037914691943128</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="H42">
-        <v>0.175355450236967</v>
+        <v>0.179245283018868</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -3485,22 +3470,22 @@
         <v>0.016</v>
       </c>
       <c r="K42">
-        <v>0.0001247438670094</v>
+        <v>0.0001179781064854</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.0002957261385855</v>
+        <v>0.0003057541733833</v>
       </c>
       <c r="N42">
-        <v>0.779649168809297</v>
+        <v>0.737363165533942</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q42">
         <v>1807709</v>
@@ -3509,19 +3494,19 @@
         <v>5635868</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3538,16 +3523,16 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43">
-        <v>0.873033577873035</v>
+        <v>0.896312997890037</v>
       </c>
       <c r="G43">
-        <v>0.10952380952381</v>
+        <v>0.109004739336493</v>
       </c>
       <c r="H43">
-        <v>0.295238095238095</v>
+        <v>0.322274881516588</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -3556,22 +3541,22 @@
         <v>12</v>
       </c>
       <c r="K43">
-        <v>-0.0904756006935843</v>
+        <v>-0.0906102704043662</v>
       </c>
       <c r="L43">
-        <v>-0.335857931933316</v>
+        <v>-0.357687550335478</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>-0.753963339113203</v>
+        <v>-0.755085586703051</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q43">
         <v>1807709</v>
@@ -3580,19 +3565,19 @@
         <v>5635868</v>
       </c>
       <c r="S43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3609,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44">
-        <v>0.986593373809073</v>
+        <v>0.713197021994299</v>
       </c>
       <c r="G44">
-        <v>0.951219512195122</v>
+        <v>0.951456310679612</v>
       </c>
       <c r="H44">
-        <v>0.06341463414634151</v>
+        <v>0.0631067961165049</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -3639,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>1807709</v>
@@ -3651,19 +3636,19 @@
         <v>5635868</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3680,28 +3665,28 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.708636913610876</v>
+        <v>0.541953908165301</v>
       </c>
       <c r="G45">
-        <v>0.407960199004975</v>
+        <v>0.415841584158416</v>
       </c>
       <c r="H45">
-        <v>0.189054726368159</v>
+        <v>0.188118811881188</v>
       </c>
       <c r="I45">
         <v>5</v>
       </c>
       <c r="J45">
-        <v>0.008</v>
+        <v>0.00715</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0001425252042521</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3710,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1807709</v>
@@ -3722,19 +3707,19 @@
         <v>5635868</v>
       </c>
       <c r="S45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3754,37 +3739,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.997926270179606</v>
+        <v>0.948242395311241</v>
       </c>
       <c r="G46">
-        <v>0.10377358490566</v>
+        <v>0.103286384976526</v>
       </c>
       <c r="H46">
-        <v>0.273584905660377</v>
+        <v>0.262910798122066</v>
       </c>
       <c r="I46">
         <v>6</v>
       </c>
       <c r="J46">
-        <v>0.0145</v>
+        <v>0.014</v>
       </c>
       <c r="K46">
-        <v>-0.0003632521133764</v>
+        <v>-0.0001667047010497</v>
       </c>
       <c r="L46">
-        <v>-0.0006248571713654</v>
+        <v>-0.0004167617526243</v>
       </c>
       <c r="M46">
-        <v>-0.0001426492953563</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>-2.50518698880296</v>
+        <v>-1.19074786464107</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q46">
         <v>1807709</v>
@@ -3793,19 +3778,19 @@
         <v>5635868</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3825,37 +3810,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.334593992277299</v>
+        <v>0.738674312109276</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.630331753554502</v>
+        <v>0.636792452830189</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.7</v>
+        <v>0.6975</v>
       </c>
       <c r="K47">
-        <v>0.0017804045820131</v>
+        <v>-0.0031305592691622</v>
       </c>
       <c r="L47">
-        <v>-0.0056165896952476</v>
+        <v>-0.0108033507697206</v>
       </c>
       <c r="M47">
-        <v>0.0087534634542978</v>
+        <v>0.0045059830520852</v>
       </c>
       <c r="N47">
-        <v>0.254343511716166</v>
+        <v>-0.448825701672</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q47">
         <v>1807709</v>
@@ -3864,19 +3849,19 @@
         <v>5635868</v>
       </c>
       <c r="S47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3896,7 +3881,7 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.95679463351315</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3908,25 +3893,25 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="K48">
-        <v>0.0154972260430863</v>
+        <v>0.008937090738433399</v>
       </c>
       <c r="L48">
-        <v>-0.0038654667722091</v>
+        <v>-0.0136447371280748</v>
       </c>
       <c r="M48">
-        <v>0.026107155459116</v>
+        <v>0.0196699155140612</v>
       </c>
       <c r="N48">
-        <v>2.27900382986562</v>
+        <v>1.27672724834764</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q48">
         <v>1807709</v>
@@ -3935,16 +3920,16 @@
         <v>5635868</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3964,7 +3949,7 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.59675202974633</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3976,25 +3961,25 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>135.2</v>
+        <v>141.6</v>
       </c>
       <c r="K49">
-        <v>0.834946372195276</v>
+        <v>-1.39479108781942</v>
       </c>
       <c r="L49">
         <v>-8.979144367430591</v>
       </c>
       <c r="M49">
-        <v>5.74027560265571</v>
+        <v>1.94102284689026</v>
       </c>
       <c r="N49">
-        <v>0.61756388475982</v>
+        <v>-0.985021954674731</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P49" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q49">
         <v>1807709</v>
@@ -4003,16 +3988,16 @@
         <v>5635868</v>
       </c>
       <c r="S49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4032,7 +4017,7 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.768783636774762</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4047,22 +4032,22 @@
         <v>8.01</v>
       </c>
       <c r="K50">
-        <v>0.09571438648122051</v>
+        <v>-0.0215478701300102</v>
       </c>
       <c r="L50">
-        <v>-0.102719523206682</v>
+        <v>-0.210757893281895</v>
       </c>
       <c r="M50">
-        <v>0.234727562095449</v>
+        <v>0.0469417611880179</v>
       </c>
       <c r="N50">
-        <v>1.19493616081424</v>
+        <v>-0.26901211148577</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q50">
         <v>1807709</v>
@@ -4071,16 +4056,16 @@
         <v>5635868</v>
       </c>
       <c r="S50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4100,7 +4085,7 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.295752518497458</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4112,25 +4097,25 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.7065</v>
+        <v>0.7025</v>
       </c>
       <c r="K51">
-        <v>-0.007865410497981101</v>
+        <v>-0.0072537967289719</v>
       </c>
       <c r="L51">
-        <v>-0.0201334704944614</v>
+        <v>-0.0137073225263181</v>
       </c>
       <c r="M51">
-        <v>0.009905019257286299</v>
+        <v>0.0117719099455776</v>
       </c>
       <c r="N51">
-        <v>-1.11329235640215</v>
+        <v>-1.03256892939103</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q51">
         <v>1807709</v>
@@ -4139,16 +4124,16 @@
         <v>5635868</v>
       </c>
       <c r="S51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4168,7 +4153,7 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.894751149972331</v>
+        <v>0.946297681834873</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4180,25 +4165,25 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>131.5</v>
+        <v>133</v>
       </c>
       <c r="K52">
-        <v>1.13982854864433</v>
+        <v>1.23876637554586</v>
       </c>
       <c r="L52">
-        <v>-0.8344533823549189</v>
+        <v>-0.397816660990728</v>
       </c>
       <c r="M52">
-        <v>2.6997584494522</v>
+        <v>3.89747939417462</v>
       </c>
       <c r="N52">
-        <v>0.866789770832193</v>
+        <v>0.931403289884104</v>
       </c>
       <c r="O52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q52">
         <v>1807709</v>
@@ -4207,16 +4192,16 @@
         <v>5635868</v>
       </c>
       <c r="S52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4236,7 +4221,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.570986171506239</v>
+        <v>0.8144533152386511</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4248,25 +4233,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>7.94</v>
+        <v>7.865</v>
       </c>
       <c r="K53">
-        <v>0.0349282786885246</v>
+        <v>0.0424199836423119</v>
       </c>
       <c r="L53">
-        <v>-0.0620328857288064</v>
+        <v>-0.0438441648564041</v>
       </c>
       <c r="M53">
-        <v>0.153290572960233</v>
+        <v>0.1566613408073</v>
       </c>
       <c r="N53">
-        <v>0.439902754263534</v>
+        <v>0.539351349552599</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q53">
         <v>1807709</v>
@@ -4275,16 +4260,16 @@
         <v>5635868</v>
       </c>
       <c r="S53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4304,37 +4289,37 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.148771894036179</v>
+        <v>0.127226263076728</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.928571428571429</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.723</v>
+        <v>0.715</v>
       </c>
       <c r="K54">
-        <v>-0.005482587811468</v>
+        <v>-0.0052776532137518</v>
       </c>
       <c r="L54">
-        <v>-0.0133009223255335</v>
+        <v>-0.0105513785366788</v>
       </c>
       <c r="M54">
-        <v>0.003260902329839</v>
+        <v>0.0018588263423307</v>
       </c>
       <c r="N54">
-        <v>-0.758310900617985</v>
+        <v>-0.738133316608654</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q54">
         <v>1807709</v>
@@ -4343,16 +4328,16 @@
         <v>5635868</v>
       </c>
       <c r="S54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4372,13 +4357,13 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.327823592764339</v>
+        <v>0.578457385365008</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4387,22 +4372,22 @@
         <v>134</v>
       </c>
       <c r="K55">
-        <v>-0.311447452568749</v>
+        <v>0.126035196687371</v>
       </c>
       <c r="L55">
-        <v>-1.20431309964728</v>
+        <v>-1.10342198681948</v>
       </c>
       <c r="M55">
-        <v>0.727433885344892</v>
+        <v>1.06069951004857</v>
       </c>
       <c r="N55">
-        <v>-0.23242347206623</v>
+        <v>0.0940561169308736</v>
       </c>
       <c r="O55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q55">
         <v>1807709</v>
@@ -4411,16 +4396,16 @@
         <v>5635868</v>
       </c>
       <c r="S55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4440,37 +4425,37 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.60800977310881</v>
+        <v>0.559082574999014</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.928571428571429</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>7.94</v>
+        <v>7.87</v>
       </c>
       <c r="K56">
-        <v>0.0101017384433031</v>
+        <v>0.0066550258123292</v>
       </c>
       <c r="L56">
-        <v>-0.0312496364549303</v>
+        <v>-0.0294178266373819</v>
       </c>
       <c r="M56">
-        <v>0.109202351425437</v>
+        <v>0.08137248885714379</v>
       </c>
       <c r="N56">
-        <v>0.127225924978628</v>
+        <v>0.0845619544133321</v>
       </c>
       <c r="O56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P56" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q56">
         <v>1807709</v>
@@ -4479,16 +4464,16 @@
         <v>5635868</v>
       </c>
       <c r="S56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4505,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.742125684461388</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4523,22 +4508,22 @@
         <v>133.5</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>0.188030793666032</v>
       </c>
       <c r="L57">
-        <v>-0.565682705116361</v>
+        <v>-0.335473196874858</v>
       </c>
       <c r="M57">
-        <v>0.472704911992373</v>
+        <v>0.728404868429596</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.140847036453957</v>
       </c>
       <c r="O57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P57" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q57">
         <v>1807709</v>
@@ -4547,16 +4532,16 @@
         <v>5635868</v>
       </c>
       <c r="S57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
